--- a/data/course/resultat_kurs_2021.xlsx
+++ b/data/course/resultat_kurs_2021.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A635C331-BCFD-534C-B67F-358803ED225F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6429A0F5-389A-574C-A743-EDBB33827FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10840" yWindow="500" windowWidth="17960" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista beviljade ansökningar" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="370">
   <si>
     <t>Diarienummer</t>
   </si>
@@ -903,18 +903,6 @@
     <t>Digital Marketing</t>
   </si>
   <si>
-    <t>Anordnare namn</t>
-  </si>
-  <si>
-    <t>Antal beviljade platser 2021</t>
-  </si>
-  <si>
-    <t>Antal beviljade platser 2022</t>
-  </si>
-  <si>
-    <t>Totalt antal beviljade platser</t>
-  </si>
-  <si>
     <t>YrkesAkademin YH AB</t>
   </si>
   <si>
@@ -1147,6 +1135,12 @@
   </si>
   <si>
     <t>År</t>
+  </si>
+  <si>
+    <t>Antal beviljade platser 1</t>
+  </si>
+  <si>
+    <t>Antal beviljade platser 2</t>
   </si>
 </sst>
 </file>
@@ -1525,793 +1519,452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O110"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q111" sqref="Q111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="28.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="25" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="69.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="28.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>295</v>
+      <c r="D2" s="5">
+        <v>35</v>
       </c>
       <c r="E2" s="5">
         <v>35</v>
       </c>
       <c r="F2" s="5">
-        <v>35</v>
-      </c>
-      <c r="G2" s="5">
         <v>70</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>353</v>
+      </c>
       <c r="H2" s="5">
-        <v>70</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>17</v>
+        <v>292</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="5">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5">
+        <v>60</v>
+      </c>
+      <c r="F3" s="5">
+        <v>30</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="5">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5">
+        <v>80</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" s="5">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5">
+        <v>60</v>
+      </c>
+      <c r="F5" s="5">
+        <v>80</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="D6" s="5">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5">
+        <v>60</v>
+      </c>
+      <c r="F6" s="5">
+        <v>75</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="5">
+        <v>40</v>
+      </c>
+      <c r="E7" s="5">
+        <v>60</v>
+      </c>
+      <c r="F7" s="5">
+        <v>80</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="E3" s="5">
-        <v>30</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="B8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" s="5">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5">
+        <v>80</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="5">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5">
         <v>60</v>
-      </c>
-      <c r="G3" s="5">
-        <v>90</v>
-      </c>
-      <c r="H3" s="5">
-        <v>30</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E4" s="5">
-        <v>30</v>
-      </c>
-      <c r="F4" s="5">
-        <v>30</v>
-      </c>
-      <c r="G4" s="5">
-        <v>60</v>
-      </c>
-      <c r="H4" s="5">
-        <v>80</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E5" s="5">
-        <v>30</v>
-      </c>
-      <c r="F5" s="5">
-        <v>60</v>
-      </c>
-      <c r="G5" s="5">
-        <v>90</v>
-      </c>
-      <c r="H5" s="5">
-        <v>80</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E6" s="5">
-        <v>40</v>
-      </c>
-      <c r="F6" s="5">
-        <v>60</v>
-      </c>
-      <c r="G6" s="5">
-        <v>100</v>
-      </c>
-      <c r="H6" s="5">
-        <v>75</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E7" s="5">
-        <v>40</v>
-      </c>
-      <c r="F7" s="5">
-        <v>60</v>
-      </c>
-      <c r="G7" s="5">
-        <v>100</v>
-      </c>
-      <c r="H7" s="5">
-        <v>80</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E8" s="5">
-        <v>30</v>
-      </c>
-      <c r="F8" s="5">
-        <v>30</v>
-      </c>
-      <c r="G8" s="5">
-        <v>60</v>
-      </c>
-      <c r="H8" s="5">
-        <v>80</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E9" s="5">
-        <v>30</v>
       </c>
       <c r="F9" s="5">
         <v>60</v>
       </c>
-      <c r="G9" s="5">
-        <v>90</v>
+      <c r="G9" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H9" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="5">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5">
         <v>60</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="F10" s="5">
+        <v>85</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" s="5">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5">
+        <v>60</v>
+      </c>
+      <c r="F11" s="5">
+        <v>45</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D12" s="5">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5">
+        <v>80</v>
+      </c>
+      <c r="F12" s="5">
+        <v>30</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="5">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5">
+        <v>60</v>
+      </c>
+      <c r="F13" s="5">
+        <v>25</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D14" s="5">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5">
+        <v>70</v>
+      </c>
+      <c r="F14" s="5">
+        <v>30</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D15" s="5">
+        <v>40</v>
+      </c>
+      <c r="E15" s="5">
+        <v>60</v>
+      </c>
+      <c r="F15" s="5">
+        <v>30</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>70</v>
+      </c>
+      <c r="F16" s="5">
         <v>50</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="G16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="E10" s="5">
-        <v>30</v>
-      </c>
-      <c r="F10" s="5">
-        <v>60</v>
-      </c>
-      <c r="G10" s="5">
-        <v>90</v>
-      </c>
-      <c r="H10" s="5">
-        <v>85</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E11" s="5">
-        <v>30</v>
-      </c>
-      <c r="F11" s="5">
-        <v>60</v>
-      </c>
-      <c r="G11" s="5">
-        <v>90</v>
-      </c>
-      <c r="H11" s="5">
-        <v>45</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="B17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D17" s="5">
         <v>35</v>
-      </c>
-      <c r="F12" s="5">
-        <v>80</v>
-      </c>
-      <c r="G12" s="5">
-        <v>115</v>
-      </c>
-      <c r="H12" s="5">
-        <v>30</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E13" s="5">
-        <v>30</v>
-      </c>
-      <c r="F13" s="5">
-        <v>60</v>
-      </c>
-      <c r="G13" s="5">
-        <v>90</v>
-      </c>
-      <c r="H13" s="5">
-        <v>25</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E14" s="5">
-        <v>30</v>
-      </c>
-      <c r="F14" s="5">
-        <v>70</v>
-      </c>
-      <c r="G14" s="5">
-        <v>100</v>
-      </c>
-      <c r="H14" s="5">
-        <v>30</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E15" s="5">
-        <v>40</v>
-      </c>
-      <c r="F15" s="5">
-        <v>60</v>
-      </c>
-      <c r="G15" s="5">
-        <v>100</v>
-      </c>
-      <c r="H15" s="5">
-        <v>30</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O15" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>70</v>
-      </c>
-      <c r="G16" s="5">
-        <v>70</v>
-      </c>
-      <c r="H16" s="5">
-        <v>50</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="E17" s="5">
         <v>35</v>
@@ -2319,4414 +1972,2434 @@
       <c r="F17" s="5">
         <v>35</v>
       </c>
-      <c r="G17" s="5">
-        <v>70</v>
+      <c r="G17" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="H17" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D18" s="5">
+        <v>15</v>
+      </c>
+      <c r="E18" s="5">
+        <v>25</v>
+      </c>
+      <c r="F18" s="5">
+        <v>55</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D19" s="5">
+        <v>25</v>
+      </c>
+      <c r="E19" s="5">
+        <v>60</v>
+      </c>
+      <c r="F19" s="5">
+        <v>30</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D20" s="5">
+        <v>45</v>
+      </c>
+      <c r="E20" s="5">
+        <v>90</v>
+      </c>
+      <c r="F20" s="5">
+        <v>60</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D21" s="5">
         <v>35</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O17" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="E21" s="5">
+        <v>100</v>
+      </c>
+      <c r="F21" s="5">
+        <v>30</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H21" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D22" s="5">
+        <v>30</v>
+      </c>
+      <c r="E22" s="5">
+        <v>60</v>
+      </c>
+      <c r="F22" s="5">
+        <v>30</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E18" s="5">
-        <v>15</v>
-      </c>
-      <c r="F18" s="5">
-        <v>25</v>
-      </c>
-      <c r="G18" s="5">
-        <v>40</v>
-      </c>
-      <c r="H18" s="5">
-        <v>55</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E19" s="5">
-        <v>25</v>
-      </c>
-      <c r="F19" s="5">
-        <v>60</v>
-      </c>
-      <c r="G19" s="5">
-        <v>85</v>
-      </c>
-      <c r="H19" s="5">
-        <v>30</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E20" s="5">
-        <v>45</v>
-      </c>
-      <c r="F20" s="5">
-        <v>90</v>
-      </c>
-      <c r="G20" s="5">
-        <v>135</v>
-      </c>
-      <c r="H20" s="5">
-        <v>60</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O20" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="B23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D23" s="5">
         <v>35</v>
-      </c>
-      <c r="F21" s="5">
-        <v>100</v>
-      </c>
-      <c r="G21" s="5">
-        <v>135</v>
-      </c>
-      <c r="H21" s="5">
-        <v>30</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O21" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E22" s="5">
-        <v>30</v>
-      </c>
-      <c r="F22" s="5">
-        <v>60</v>
-      </c>
-      <c r="G22" s="5">
-        <v>90</v>
-      </c>
-      <c r="H22" s="5">
-        <v>30</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O22" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="E23" s="5">
         <v>35</v>
       </c>
       <c r="F23" s="5">
+        <v>65</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H23" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>25</v>
+      </c>
+      <c r="F24" s="5">
+        <v>40</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D25" s="5">
+        <v>8</v>
+      </c>
+      <c r="E25" s="5">
+        <v>18</v>
+      </c>
+      <c r="F25" s="5">
         <v>35</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D26" s="5">
+        <v>35</v>
+      </c>
+      <c r="E26" s="5">
         <v>70</v>
       </c>
-      <c r="H23" s="5">
-        <v>65</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O23" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="F26" s="5">
+        <v>60</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D27" s="5">
+        <v>35</v>
+      </c>
+      <c r="E27" s="5">
+        <v>70</v>
+      </c>
+      <c r="F27" s="5">
+        <v>60</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D28" s="5">
+        <v>40</v>
+      </c>
+      <c r="E28" s="5">
+        <v>80</v>
+      </c>
+      <c r="F28" s="5">
+        <v>35</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D29" s="5">
+        <v>70</v>
+      </c>
+      <c r="E29" s="5">
+        <v>210</v>
+      </c>
+      <c r="F29" s="5">
+        <v>30</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H29" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D30" s="5">
+        <v>30</v>
+      </c>
+      <c r="E30" s="5">
+        <v>30</v>
+      </c>
+      <c r="F30" s="5">
+        <v>50</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>30</v>
+      </c>
+      <c r="F31" s="5">
+        <v>50</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>25</v>
-      </c>
-      <c r="G24" s="5">
-        <v>25</v>
-      </c>
-      <c r="H24" s="5">
-        <v>40</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O24" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E25" s="5">
-        <v>8</v>
-      </c>
-      <c r="F25" s="5">
-        <v>18</v>
-      </c>
-      <c r="G25" s="5">
-        <v>26</v>
-      </c>
-      <c r="H25" s="5">
+      <c r="D32" s="5">
         <v>35</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O25" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E26" s="5">
-        <v>35</v>
-      </c>
-      <c r="F26" s="5">
+      <c r="E32" s="5">
         <v>70</v>
-      </c>
-      <c r="G26" s="5">
-        <v>105</v>
-      </c>
-      <c r="H26" s="5">
-        <v>60</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O26" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E27" s="5">
-        <v>35</v>
-      </c>
-      <c r="F27" s="5">
-        <v>70</v>
-      </c>
-      <c r="G27" s="5">
-        <v>105</v>
-      </c>
-      <c r="H27" s="5">
-        <v>60</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O27" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E28" s="5">
-        <v>40</v>
-      </c>
-      <c r="F28" s="5">
-        <v>80</v>
-      </c>
-      <c r="G28" s="5">
-        <v>120</v>
-      </c>
-      <c r="H28" s="5">
-        <v>35</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O28" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E29" s="5">
-        <v>70</v>
-      </c>
-      <c r="F29" s="5">
-        <v>210</v>
-      </c>
-      <c r="G29" s="5">
-        <v>280</v>
-      </c>
-      <c r="H29" s="5">
-        <v>30</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O29" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E30" s="5">
-        <v>30</v>
-      </c>
-      <c r="F30" s="5">
-        <v>30</v>
-      </c>
-      <c r="G30" s="5">
-        <v>60</v>
-      </c>
-      <c r="H30" s="5">
-        <v>50</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O30" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
-        <v>30</v>
-      </c>
-      <c r="G31" s="5">
-        <v>30</v>
-      </c>
-      <c r="H31" s="5">
-        <v>50</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O31" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E32" s="5">
-        <v>35</v>
       </c>
       <c r="F32" s="5">
         <v>70</v>
       </c>
-      <c r="G32" s="5">
-        <v>105</v>
+      <c r="G32" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="H32" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D33" s="5">
+        <v>35</v>
+      </c>
+      <c r="E33" s="5">
         <v>70</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="F33" s="5">
+        <v>50</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="5" t="s">
+      <c r="H33" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D34" s="5">
+        <v>30</v>
+      </c>
+      <c r="E34" s="5">
+        <v>60</v>
+      </c>
+      <c r="F34" s="5">
+        <v>30</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H34" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D35" s="5">
+        <v>35</v>
+      </c>
+      <c r="E35" s="5">
+        <v>70</v>
+      </c>
+      <c r="F35" s="5">
+        <v>60</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L32" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O32" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="5" t="s">
+      <c r="H35" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D36" s="5">
+        <v>35</v>
+      </c>
+      <c r="E36" s="5">
+        <v>70</v>
+      </c>
+      <c r="F36" s="5">
+        <v>30</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>20</v>
+      </c>
+      <c r="F37" s="5">
+        <v>75</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D38" s="5">
+        <v>40</v>
+      </c>
+      <c r="E38" s="5">
+        <v>80</v>
+      </c>
+      <c r="F38" s="5">
+        <v>50</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H38" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D39" s="5">
+        <v>30</v>
+      </c>
+      <c r="E39" s="5">
+        <v>60</v>
+      </c>
+      <c r="F39" s="5">
+        <v>40</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H39" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D40" s="5">
+        <v>30</v>
+      </c>
+      <c r="E40" s="5">
+        <v>30</v>
+      </c>
+      <c r="F40" s="5">
+        <v>60</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H40" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="B41" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D41" s="5">
+        <v>22</v>
+      </c>
+      <c r="E41" s="5">
+        <v>45</v>
+      </c>
+      <c r="F41" s="5">
+        <v>30</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H41" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D42" s="5">
+        <v>22</v>
+      </c>
+      <c r="E42" s="5">
+        <v>45</v>
+      </c>
+      <c r="F42" s="5">
+        <v>30</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H42" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="E33" s="5">
+      <c r="B43" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0</v>
+      </c>
+      <c r="E43" s="5">
+        <v>60</v>
+      </c>
+      <c r="F43" s="5">
+        <v>50</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H43" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D44" s="5">
+        <v>30</v>
+      </c>
+      <c r="E44" s="5">
+        <v>60</v>
+      </c>
+      <c r="F44" s="5">
+        <v>20</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H44" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
+        <v>50</v>
+      </c>
+      <c r="F45" s="5">
+        <v>32</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D46" s="5">
         <v>35</v>
       </c>
-      <c r="F33" s="5">
+      <c r="E46" s="5">
         <v>70</v>
       </c>
-      <c r="G33" s="5">
-        <v>105</v>
-      </c>
-      <c r="H33" s="5">
+      <c r="F46" s="5">
+        <v>75</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D47" s="5">
+        <v>30</v>
+      </c>
+      <c r="E47" s="5">
+        <v>90</v>
+      </c>
+      <c r="F47" s="5">
+        <v>15</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D48" s="5">
+        <v>30</v>
+      </c>
+      <c r="E48" s="5">
+        <v>60</v>
+      </c>
+      <c r="F48" s="5">
         <v>50</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O33" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="G48" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H48" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D49" s="5">
+        <v>30</v>
+      </c>
+      <c r="E49" s="5">
+        <v>30</v>
+      </c>
+      <c r="F49" s="5">
+        <v>95</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D50" s="5">
+        <v>30</v>
+      </c>
+      <c r="E50" s="5">
+        <v>30</v>
+      </c>
+      <c r="F50" s="5">
+        <v>60</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E34" s="5">
-        <v>30</v>
-      </c>
-      <c r="F34" s="5">
+      <c r="B51" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D51" s="5">
+        <v>25</v>
+      </c>
+      <c r="E51" s="5">
         <v>60</v>
       </c>
-      <c r="G34" s="5">
-        <v>90</v>
-      </c>
-      <c r="H34" s="5">
-        <v>30</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O34" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E35" s="5">
+      <c r="F51" s="5">
+        <v>30</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H51" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D52" s="5">
+        <v>30</v>
+      </c>
+      <c r="E52" s="5">
+        <v>60</v>
+      </c>
+      <c r="F52" s="5">
+        <v>15</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H52" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D53" s="5">
         <v>35</v>
-      </c>
-      <c r="F35" s="5">
-        <v>70</v>
-      </c>
-      <c r="G35" s="5">
-        <v>105</v>
-      </c>
-      <c r="H35" s="5">
-        <v>60</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O35" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E36" s="5">
-        <v>35</v>
-      </c>
-      <c r="F36" s="5">
-        <v>70</v>
-      </c>
-      <c r="G36" s="5">
-        <v>105</v>
-      </c>
-      <c r="H36" s="5">
-        <v>30</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O36" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E37" s="5">
-        <v>0</v>
-      </c>
-      <c r="F37" s="5">
-        <v>20</v>
-      </c>
-      <c r="G37" s="5">
-        <v>20</v>
-      </c>
-      <c r="H37" s="5">
-        <v>75</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O37" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E38" s="5">
-        <v>40</v>
-      </c>
-      <c r="F38" s="5">
-        <v>80</v>
-      </c>
-      <c r="G38" s="5">
-        <v>120</v>
-      </c>
-      <c r="H38" s="5">
-        <v>50</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O38" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E39" s="5">
-        <v>30</v>
-      </c>
-      <c r="F39" s="5">
-        <v>60</v>
-      </c>
-      <c r="G39" s="5">
-        <v>90</v>
-      </c>
-      <c r="H39" s="5">
-        <v>40</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O39" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E40" s="5">
-        <v>30</v>
-      </c>
-      <c r="F40" s="5">
-        <v>30</v>
-      </c>
-      <c r="G40" s="5">
-        <v>60</v>
-      </c>
-      <c r="H40" s="5">
-        <v>60</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O40" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E41" s="5">
-        <v>22</v>
-      </c>
-      <c r="F41" s="5">
-        <v>45</v>
-      </c>
-      <c r="G41" s="5">
-        <v>67</v>
-      </c>
-      <c r="H41" s="5">
-        <v>30</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O41" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E42" s="5">
-        <v>22</v>
-      </c>
-      <c r="F42" s="5">
-        <v>45</v>
-      </c>
-      <c r="G42" s="5">
-        <v>67</v>
-      </c>
-      <c r="H42" s="5">
-        <v>30</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O42" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E43" s="5">
-        <v>0</v>
-      </c>
-      <c r="F43" s="5">
-        <v>60</v>
-      </c>
-      <c r="G43" s="5">
-        <v>60</v>
-      </c>
-      <c r="H43" s="5">
-        <v>50</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O43" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E44" s="5">
-        <v>30</v>
-      </c>
-      <c r="F44" s="5">
-        <v>60</v>
-      </c>
-      <c r="G44" s="5">
-        <v>90</v>
-      </c>
-      <c r="H44" s="5">
-        <v>20</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N44" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O44" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E45" s="5">
-        <v>0</v>
-      </c>
-      <c r="F45" s="5">
-        <v>50</v>
-      </c>
-      <c r="G45" s="5">
-        <v>50</v>
-      </c>
-      <c r="H45" s="5">
-        <v>32</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N45" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O45" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E46" s="5">
-        <v>35</v>
-      </c>
-      <c r="F46" s="5">
-        <v>70</v>
-      </c>
-      <c r="G46" s="5">
-        <v>105</v>
-      </c>
-      <c r="H46" s="5">
-        <v>75</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M46" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N46" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O46" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E47" s="5">
-        <v>30</v>
-      </c>
-      <c r="F47" s="5">
-        <v>90</v>
-      </c>
-      <c r="G47" s="5">
-        <v>120</v>
-      </c>
-      <c r="H47" s="5">
-        <v>15</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N47" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O47" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E48" s="5">
-        <v>30</v>
-      </c>
-      <c r="F48" s="5">
-        <v>60</v>
-      </c>
-      <c r="G48" s="5">
-        <v>90</v>
-      </c>
-      <c r="H48" s="5">
-        <v>50</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N48" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O48" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E49" s="5">
-        <v>30</v>
-      </c>
-      <c r="F49" s="5">
-        <v>30</v>
-      </c>
-      <c r="G49" s="5">
-        <v>60</v>
-      </c>
-      <c r="H49" s="5">
-        <v>95</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N49" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O49" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E50" s="5">
-        <v>30</v>
-      </c>
-      <c r="F50" s="5">
-        <v>30</v>
-      </c>
-      <c r="G50" s="5">
-        <v>60</v>
-      </c>
-      <c r="H50" s="5">
-        <v>60</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M50" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N50" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O50" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E51" s="5">
-        <v>25</v>
-      </c>
-      <c r="F51" s="5">
-        <v>60</v>
-      </c>
-      <c r="G51" s="5">
-        <v>85</v>
-      </c>
-      <c r="H51" s="5">
-        <v>30</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M51" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N51" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O51" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E52" s="5">
-        <v>30</v>
-      </c>
-      <c r="F52" s="5">
-        <v>60</v>
-      </c>
-      <c r="G52" s="5">
-        <v>90</v>
-      </c>
-      <c r="H52" s="5">
-        <v>15</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N52" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O52" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="E53" s="5">
         <v>35</v>
       </c>
       <c r="F53" s="5">
-        <v>35</v>
-      </c>
-      <c r="G53" s="5">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="H53" s="5">
-        <v>60</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M53" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N53" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O53" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>164</v>
+        <v>322</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
+      </c>
+      <c r="D54" s="5">
+        <v>40</v>
       </c>
       <c r="E54" s="5">
         <v>40</v>
       </c>
       <c r="F54" s="5">
+        <v>20</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H54" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D55" s="5">
+        <v>30</v>
+      </c>
+      <c r="E55" s="5">
+        <v>70</v>
+      </c>
+      <c r="F55" s="5">
+        <v>35</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H55" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D56" s="5">
+        <v>35</v>
+      </c>
+      <c r="E56" s="5">
+        <v>70</v>
+      </c>
+      <c r="F56" s="5">
+        <v>30</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H56" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D57" s="5">
+        <v>30</v>
+      </c>
+      <c r="E57" s="5">
+        <v>60</v>
+      </c>
+      <c r="F57" s="5">
+        <v>25</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H57" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D58" s="5">
         <v>40</v>
       </c>
-      <c r="G54" s="5">
+      <c r="E58" s="5">
         <v>80</v>
       </c>
-      <c r="H54" s="5">
+      <c r="F58" s="5">
         <v>20</v>
       </c>
-      <c r="I54" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="L54" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M54" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N54" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O54" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B55" s="5" t="s">
+      <c r="G58" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H58" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D59" s="5">
+        <v>30</v>
+      </c>
+      <c r="E59" s="5">
+        <v>60</v>
+      </c>
+      <c r="F59" s="5">
+        <v>35</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E55" s="5">
-        <v>30</v>
-      </c>
-      <c r="F55" s="5">
-        <v>70</v>
-      </c>
-      <c r="G55" s="5">
-        <v>100</v>
-      </c>
-      <c r="H55" s="5">
-        <v>35</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N55" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O55" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="B60" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D60" s="5">
+        <v>30</v>
+      </c>
+      <c r="E60" s="5">
+        <v>60</v>
+      </c>
+      <c r="F60" s="5">
+        <v>30</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H60" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E56" s="5">
-        <v>35</v>
-      </c>
-      <c r="F56" s="5">
-        <v>70</v>
-      </c>
-      <c r="G56" s="5">
-        <v>105</v>
-      </c>
-      <c r="H56" s="5">
-        <v>30</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M56" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N56" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O56" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="B61" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D61" s="5">
+        <v>30</v>
+      </c>
+      <c r="E61" s="5">
+        <v>60</v>
+      </c>
+      <c r="F61" s="5">
+        <v>25</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D62" s="5">
+        <v>25</v>
+      </c>
+      <c r="E62" s="5">
+        <v>50</v>
+      </c>
+      <c r="F62" s="5">
+        <v>30</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E57" s="5">
-        <v>30</v>
-      </c>
-      <c r="F57" s="5">
-        <v>60</v>
-      </c>
-      <c r="G57" s="5">
-        <v>90</v>
-      </c>
-      <c r="H57" s="5">
+      <c r="B63" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D63" s="5">
         <v>25</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N57" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O57" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E58" s="5">
-        <v>40</v>
-      </c>
-      <c r="F58" s="5">
-        <v>80</v>
-      </c>
-      <c r="G58" s="5">
-        <v>120</v>
-      </c>
-      <c r="H58" s="5">
-        <v>20</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L58" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M58" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N58" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O58" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E59" s="5">
-        <v>30</v>
-      </c>
-      <c r="F59" s="5">
-        <v>60</v>
-      </c>
-      <c r="G59" s="5">
-        <v>90</v>
-      </c>
-      <c r="H59" s="5">
-        <v>35</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L59" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M59" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N59" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O59" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E60" s="5">
-        <v>30</v>
-      </c>
-      <c r="F60" s="5">
-        <v>60</v>
-      </c>
-      <c r="G60" s="5">
-        <v>90</v>
-      </c>
-      <c r="H60" s="5">
-        <v>30</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L60" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M60" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N60" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O60" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E61" s="5">
-        <v>30</v>
-      </c>
-      <c r="F61" s="5">
-        <v>60</v>
-      </c>
-      <c r="G61" s="5">
-        <v>90</v>
-      </c>
-      <c r="H61" s="5">
-        <v>25</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L61" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M61" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N61" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O61" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E62" s="5">
-        <v>25</v>
-      </c>
-      <c r="F62" s="5">
-        <v>50</v>
-      </c>
-      <c r="G62" s="5">
-        <v>75</v>
-      </c>
-      <c r="H62" s="5">
-        <v>30</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L62" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M62" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N62" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O62" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="E63" s="5">
         <v>25</v>
       </c>
       <c r="F63" s="5">
+        <v>20</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H63" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D64" s="5">
         <v>25</v>
-      </c>
-      <c r="G63" s="5">
-        <v>50</v>
-      </c>
-      <c r="H63" s="5">
-        <v>20</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L63" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M63" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N63" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O63" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="E64" s="5">
         <v>25</v>
       </c>
       <c r="F64" s="5">
-        <v>25</v>
-      </c>
-      <c r="G64" s="5">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="H64" s="5">
-        <v>20</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L64" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M64" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N64" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O64" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>334</v>
+        <v>191</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
+      </c>
+      <c r="D65" s="5">
+        <v>30</v>
       </c>
       <c r="E65" s="5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F65" s="5">
         <v>60</v>
       </c>
-      <c r="G65" s="5">
-        <v>90</v>
+      <c r="G65" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="H65" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D66" s="5">
+        <v>30</v>
+      </c>
+      <c r="E66" s="5">
+        <v>30</v>
+      </c>
+      <c r="F66" s="5">
+        <v>95</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H66" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D67" s="5">
+        <v>25</v>
+      </c>
+      <c r="E67" s="5">
+        <v>35</v>
+      </c>
+      <c r="F67" s="5">
+        <v>50</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H67" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D68" s="5">
+        <v>40</v>
+      </c>
+      <c r="E68" s="5">
         <v>60</v>
       </c>
-      <c r="I65" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K65" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L65" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M65" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N65" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O65" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B66" s="5" t="s">
+      <c r="F68" s="5">
+        <v>45</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0</v>
+      </c>
+      <c r="E69" s="5">
+        <v>100</v>
+      </c>
+      <c r="F69" s="5">
+        <v>5</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H69" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0</v>
+      </c>
+      <c r="E70" s="5">
+        <v>30</v>
+      </c>
+      <c r="F70" s="5">
+        <v>15</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H70" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D71" s="5">
+        <v>35</v>
+      </c>
+      <c r="E71" s="5">
+        <v>100</v>
+      </c>
+      <c r="F71" s="5">
+        <v>80</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H71" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E66" s="5">
-        <v>30</v>
-      </c>
-      <c r="F66" s="5">
-        <v>30</v>
-      </c>
-      <c r="G66" s="5">
+      <c r="B72" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D72" s="5">
+        <v>20</v>
+      </c>
+      <c r="E72" s="5">
+        <v>40</v>
+      </c>
+      <c r="F72" s="5">
+        <v>20</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H72" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D73" s="5">
+        <v>15</v>
+      </c>
+      <c r="E73" s="5">
+        <v>30</v>
+      </c>
+      <c r="F73" s="5">
+        <v>85</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H73" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D74" s="5">
+        <v>30</v>
+      </c>
+      <c r="E74" s="5">
         <v>60</v>
       </c>
-      <c r="H66" s="5">
-        <v>95</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L66" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M66" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N66" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O66" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E67" s="5">
-        <v>25</v>
-      </c>
-      <c r="F67" s="5">
-        <v>35</v>
-      </c>
-      <c r="G67" s="5">
-        <v>60</v>
-      </c>
-      <c r="H67" s="5">
-        <v>50</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="L67" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M67" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N67" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O67" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E68" s="5">
-        <v>40</v>
-      </c>
-      <c r="F68" s="5">
-        <v>60</v>
-      </c>
-      <c r="G68" s="5">
-        <v>100</v>
-      </c>
-      <c r="H68" s="5">
-        <v>45</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K68" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L68" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M68" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N68" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O68" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E69" s="5">
-        <v>0</v>
-      </c>
-      <c r="F69" s="5">
-        <v>100</v>
-      </c>
-      <c r="G69" s="5">
-        <v>100</v>
-      </c>
-      <c r="H69" s="5">
-        <v>5</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L69" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N69" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O69" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E70" s="5">
-        <v>0</v>
-      </c>
-      <c r="F70" s="5">
-        <v>30</v>
-      </c>
-      <c r="G70" s="5">
-        <v>30</v>
-      </c>
-      <c r="H70" s="5">
-        <v>15</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K70" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="L70" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M70" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N70" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O70" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E71" s="5">
-        <v>35</v>
-      </c>
-      <c r="F71" s="5">
-        <v>100</v>
-      </c>
-      <c r="G71" s="5">
-        <v>135</v>
-      </c>
-      <c r="H71" s="5">
-        <v>80</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="L71" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="M71" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="N71" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="O71" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E72" s="5">
-        <v>20</v>
-      </c>
-      <c r="F72" s="5">
-        <v>40</v>
-      </c>
-      <c r="G72" s="5">
-        <v>60</v>
-      </c>
-      <c r="H72" s="5">
-        <v>20</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L72" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M72" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N72" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O72" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E73" s="5">
-        <v>15</v>
-      </c>
-      <c r="F73" s="5">
-        <v>30</v>
-      </c>
-      <c r="G73" s="5">
-        <v>45</v>
-      </c>
-      <c r="H73" s="5">
-        <v>85</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K73" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L73" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M73" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N73" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O73" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E74" s="5">
-        <v>30</v>
-      </c>
       <c r="F74" s="5">
-        <v>60</v>
-      </c>
-      <c r="G74" s="5">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="H74" s="5">
-        <v>30</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J74" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K74" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L74" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M74" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N74" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O74" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
-        <v>216</v>
+        <v>335</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>339</v>
+        <v>217</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
+      </c>
+      <c r="D75" s="5">
+        <v>28</v>
       </c>
       <c r="E75" s="5">
         <v>28</v>
       </c>
       <c r="F75" s="5">
-        <v>28</v>
-      </c>
-      <c r="G75" s="5">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="H75" s="5">
-        <v>30</v>
-      </c>
-      <c r="I75" s="5" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D76" s="5">
+        <v>30</v>
+      </c>
+      <c r="E76" s="5">
+        <v>30</v>
+      </c>
+      <c r="F76" s="5">
+        <v>30</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H76" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D77" s="5">
+        <v>30</v>
+      </c>
+      <c r="E77" s="5">
+        <v>30</v>
+      </c>
+      <c r="F77" s="5">
+        <v>50</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H77" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D78" s="5">
+        <v>20</v>
+      </c>
+      <c r="E78" s="5">
+        <v>40</v>
+      </c>
+      <c r="F78" s="5">
+        <v>20</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J75" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K75" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L75" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M75" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N75" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O75" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B76" s="5" t="s">
+      <c r="H78" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D79" s="5">
+        <v>33</v>
+      </c>
+      <c r="E79" s="5">
+        <v>60</v>
+      </c>
+      <c r="F79" s="5">
+        <v>95</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D80" s="5">
+        <v>15</v>
+      </c>
+      <c r="E80" s="5">
+        <v>20</v>
+      </c>
+      <c r="F80" s="5">
+        <v>85</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H80" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D81" s="5">
+        <v>40</v>
+      </c>
+      <c r="E81" s="5">
+        <v>80</v>
+      </c>
+      <c r="F81" s="5">
+        <v>20</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E76" s="5">
-        <v>30</v>
-      </c>
-      <c r="F76" s="5">
-        <v>30</v>
-      </c>
-      <c r="G76" s="5">
-        <v>60</v>
-      </c>
-      <c r="H76" s="5">
-        <v>30</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K76" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="L76" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M76" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N76" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O76" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E77" s="5">
-        <v>30</v>
-      </c>
-      <c r="F77" s="5">
-        <v>30</v>
-      </c>
-      <c r="G77" s="5">
-        <v>60</v>
-      </c>
-      <c r="H77" s="5">
-        <v>50</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="L77" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M77" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N77" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O77" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A78" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E78" s="5">
+      <c r="B82" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D82" s="5">
         <v>20</v>
       </c>
-      <c r="F78" s="5">
+      <c r="E82" s="5">
         <v>40</v>
       </c>
-      <c r="G78" s="5">
-        <v>60</v>
-      </c>
-      <c r="H78" s="5">
-        <v>20</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J78" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K78" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L78" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M78" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N78" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O78" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A79" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E79" s="5">
-        <v>33</v>
-      </c>
-      <c r="F79" s="5">
-        <v>60</v>
-      </c>
-      <c r="G79" s="5">
-        <v>93</v>
-      </c>
-      <c r="H79" s="5">
+      <c r="F82" s="5">
         <v>95</v>
       </c>
-      <c r="I79" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J79" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K79" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L79" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M79" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N79" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O79" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A80" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E80" s="5">
-        <v>15</v>
-      </c>
-      <c r="F80" s="5">
-        <v>20</v>
-      </c>
-      <c r="G80" s="5">
-        <v>35</v>
-      </c>
-      <c r="H80" s="5">
-        <v>85</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L80" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M80" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N80" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O80" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A81" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E81" s="5">
+      <c r="G82" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F81" s="5">
-        <v>80</v>
-      </c>
-      <c r="G81" s="5">
-        <v>120</v>
-      </c>
-      <c r="H81" s="5">
-        <v>20</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K81" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L81" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M81" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N81" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O81" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A82" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E82" s="5">
-        <v>20</v>
-      </c>
-      <c r="F82" s="5">
+      <c r="H82" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D83" s="5">
+        <v>0</v>
+      </c>
+      <c r="E83" s="5">
         <v>40</v>
-      </c>
-      <c r="G82" s="5">
-        <v>60</v>
-      </c>
-      <c r="H82" s="5">
-        <v>95</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K82" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L82" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M82" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N82" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O82" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A83" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E83" s="5">
-        <v>0</v>
       </c>
       <c r="F83" s="5">
         <v>40</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H83" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D84" s="5">
+        <v>30</v>
+      </c>
+      <c r="E84" s="5">
+        <v>60</v>
+      </c>
+      <c r="F84" s="5">
         <v>40</v>
       </c>
-      <c r="H83" s="5">
+      <c r="G84" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H84" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D85" s="5">
+        <v>25</v>
+      </c>
+      <c r="E85" s="5">
+        <v>50</v>
+      </c>
+      <c r="F85" s="5">
+        <v>30</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H85" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D86" s="5">
+        <v>30</v>
+      </c>
+      <c r="E86" s="5">
+        <v>30</v>
+      </c>
+      <c r="F86" s="5">
+        <v>80</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H86" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D87" s="5">
+        <v>30</v>
+      </c>
+      <c r="E87" s="5">
+        <v>30</v>
+      </c>
+      <c r="F87" s="5">
+        <v>30</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H87" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D88" s="5">
+        <v>25</v>
+      </c>
+      <c r="E88" s="5">
+        <v>35</v>
+      </c>
+      <c r="F88" s="5">
+        <v>30</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H88" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D89" s="5">
+        <v>30</v>
+      </c>
+      <c r="E89" s="5">
+        <v>60</v>
+      </c>
+      <c r="F89" s="5">
+        <v>35</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H89" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D90" s="5">
+        <v>30</v>
+      </c>
+      <c r="E90" s="5">
+        <v>30</v>
+      </c>
+      <c r="F90" s="5">
+        <v>70</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H90" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D91" s="5">
+        <v>35</v>
+      </c>
+      <c r="E91" s="5">
+        <v>70</v>
+      </c>
+      <c r="F91" s="5">
+        <v>15</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A92" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D92" s="5">
+        <v>30</v>
+      </c>
+      <c r="E92" s="5">
+        <v>60</v>
+      </c>
+      <c r="F92" s="5">
+        <v>20</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H92" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D93" s="5">
+        <v>30</v>
+      </c>
+      <c r="E93" s="5">
+        <v>50</v>
+      </c>
+      <c r="F93" s="5">
         <v>40</v>
       </c>
-      <c r="I83" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L83" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M83" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N83" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O83" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A84" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="E84" s="5">
-        <v>30</v>
-      </c>
-      <c r="F84" s="5">
-        <v>60</v>
-      </c>
-      <c r="G84" s="5">
-        <v>90</v>
-      </c>
-      <c r="H84" s="5">
-        <v>40</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K84" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L84" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M84" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N84" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O84" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A85" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E85" s="5">
-        <v>25</v>
-      </c>
-      <c r="F85" s="5">
-        <v>50</v>
-      </c>
-      <c r="G85" s="5">
-        <v>75</v>
-      </c>
-      <c r="H85" s="5">
-        <v>30</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K85" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L85" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M85" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N85" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O85" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A86" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E86" s="5">
-        <v>30</v>
-      </c>
-      <c r="F86" s="5">
-        <v>30</v>
-      </c>
-      <c r="G86" s="5">
-        <v>60</v>
-      </c>
-      <c r="H86" s="5">
-        <v>80</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K86" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L86" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M86" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N86" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O86" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A87" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E87" s="5">
-        <v>30</v>
-      </c>
-      <c r="F87" s="5">
-        <v>30</v>
-      </c>
-      <c r="G87" s="5">
-        <v>60</v>
-      </c>
-      <c r="H87" s="5">
-        <v>30</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K87" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="L87" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M87" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N87" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O87" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A88" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E88" s="5">
-        <v>25</v>
-      </c>
-      <c r="F88" s="5">
+      <c r="G93" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H93" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D94" s="5">
         <v>35</v>
-      </c>
-      <c r="G88" s="5">
-        <v>60</v>
-      </c>
-      <c r="H88" s="5">
-        <v>30</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K88" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="L88" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M88" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N88" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O88" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A89" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E89" s="5">
-        <v>30</v>
-      </c>
-      <c r="F89" s="5">
-        <v>60</v>
-      </c>
-      <c r="G89" s="5">
-        <v>90</v>
-      </c>
-      <c r="H89" s="5">
-        <v>35</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="J89" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K89" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="L89" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M89" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N89" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O89" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A90" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E90" s="5">
-        <v>30</v>
-      </c>
-      <c r="F90" s="5">
-        <v>30</v>
-      </c>
-      <c r="G90" s="5">
-        <v>60</v>
-      </c>
-      <c r="H90" s="5">
-        <v>70</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K90" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L90" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M90" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N90" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O90" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A91" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E91" s="5">
-        <v>35</v>
-      </c>
-      <c r="F91" s="5">
-        <v>70</v>
-      </c>
-      <c r="G91" s="5">
-        <v>105</v>
-      </c>
-      <c r="H91" s="5">
-        <v>15</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J91" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K91" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L91" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M91" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N91" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O91" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A92" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E92" s="5">
-        <v>30</v>
-      </c>
-      <c r="F92" s="5">
-        <v>60</v>
-      </c>
-      <c r="G92" s="5">
-        <v>90</v>
-      </c>
-      <c r="H92" s="5">
-        <v>20</v>
-      </c>
-      <c r="I92" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K92" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L92" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M92" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N92" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O92" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A93" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E93" s="5">
-        <v>30</v>
-      </c>
-      <c r="F93" s="5">
-        <v>50</v>
-      </c>
-      <c r="G93" s="5">
-        <v>80</v>
-      </c>
-      <c r="H93" s="5">
-        <v>40</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="K93" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L93" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M93" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N93" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O93" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A94" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="E94" s="5">
         <v>35</v>
       </c>
       <c r="F94" s="5">
+        <v>95</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H94" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D95" s="5">
         <v>35</v>
-      </c>
-      <c r="G94" s="5">
-        <v>70</v>
-      </c>
-      <c r="H94" s="5">
-        <v>95</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K94" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="L94" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M94" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N94" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O94" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A95" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="E95" s="5">
         <v>35</v>
       </c>
       <c r="F95" s="5">
-        <v>35</v>
-      </c>
-      <c r="G95" s="5">
-        <v>70</v>
+        <v>80</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="H95" s="5">
-        <v>80</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="J95" s="5" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D96" s="5">
+        <v>10</v>
+      </c>
+      <c r="E96" s="5">
+        <v>50</v>
+      </c>
+      <c r="F96" s="5">
+        <v>30</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D97" s="5">
+        <v>30</v>
+      </c>
+      <c r="E97" s="5">
+        <v>60</v>
+      </c>
+      <c r="F97" s="5">
+        <v>50</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D98" s="5">
+        <v>0</v>
+      </c>
+      <c r="E98" s="5">
+        <v>50</v>
+      </c>
+      <c r="F98" s="5">
+        <v>30</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H98" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D99" s="5">
+        <v>25</v>
+      </c>
+      <c r="E99" s="5">
+        <v>50</v>
+      </c>
+      <c r="F99" s="5">
+        <v>90</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H99" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D100" s="5">
         <v>20</v>
       </c>
-      <c r="K95" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="L95" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M95" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N95" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O95" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A96" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D96" s="5" t="s">
+      <c r="E100" s="5">
+        <v>40</v>
+      </c>
+      <c r="F100" s="5">
+        <v>50</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A101" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D101" s="5">
+        <v>20</v>
+      </c>
+      <c r="E101" s="5">
+        <v>40</v>
+      </c>
+      <c r="F101" s="5">
+        <v>25</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H101" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A102" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D102" s="5">
+        <v>20</v>
+      </c>
+      <c r="E102" s="5">
+        <v>40</v>
+      </c>
+      <c r="F102" s="5">
+        <v>25</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H102" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A103" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D103" s="5">
+        <v>20</v>
+      </c>
+      <c r="E103" s="5">
+        <v>40</v>
+      </c>
+      <c r="F103" s="5">
+        <v>30</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H103" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A104" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D104" s="5">
+        <v>0</v>
+      </c>
+      <c r="E104" s="5">
+        <v>100</v>
+      </c>
+      <c r="F104" s="5">
+        <v>60</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A105" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D105" s="5">
+        <v>40</v>
+      </c>
+      <c r="E105" s="5">
+        <v>120</v>
+      </c>
+      <c r="F105" s="5">
+        <v>30</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H105" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A106" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D106" s="5">
+        <v>40</v>
+      </c>
+      <c r="E106" s="5">
+        <v>120</v>
+      </c>
+      <c r="F106" s="5">
+        <v>40</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A107" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E96" s="5">
-        <v>10</v>
-      </c>
-      <c r="F96" s="5">
+      <c r="D107" s="5">
+        <v>0</v>
+      </c>
+      <c r="E107" s="5">
+        <v>60</v>
+      </c>
+      <c r="F107" s="5">
+        <v>30</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H107" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A108" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D108" s="5">
+        <v>0</v>
+      </c>
+      <c r="E108" s="5">
+        <v>60</v>
+      </c>
+      <c r="F108" s="5">
+        <v>20</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A109" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D109" s="5">
+        <v>30</v>
+      </c>
+      <c r="E109" s="5">
+        <v>60</v>
+      </c>
+      <c r="F109" s="5">
         <v>50</v>
       </c>
-      <c r="G96" s="5">
-        <v>60</v>
-      </c>
-      <c r="H96" s="5">
-        <v>30</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K96" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L96" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M96" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N96" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O96" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A97" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B97" s="5" t="s">
+      <c r="G109" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A110" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="E97" s="5">
-        <v>30</v>
-      </c>
-      <c r="F97" s="5">
-        <v>60</v>
-      </c>
-      <c r="G97" s="5">
-        <v>90</v>
-      </c>
-      <c r="H97" s="5">
+      <c r="B110" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D110" s="5">
         <v>50</v>
       </c>
-      <c r="I97" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K97" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L97" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M97" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N97" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O97" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A98" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E98" s="5">
-        <v>0</v>
-      </c>
-      <c r="F98" s="5">
-        <v>50</v>
-      </c>
-      <c r="G98" s="5">
-        <v>50</v>
-      </c>
-      <c r="H98" s="5">
-        <v>30</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="K98" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="L98" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M98" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N98" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O98" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A99" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="E99" s="5">
-        <v>25</v>
-      </c>
-      <c r="F99" s="5">
-        <v>50</v>
-      </c>
-      <c r="G99" s="5">
-        <v>75</v>
-      </c>
-      <c r="H99" s="5">
-        <v>90</v>
-      </c>
-      <c r="I99" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="J99" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K99" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="L99" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M99" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N99" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O99" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A100" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E100" s="5">
-        <v>20</v>
-      </c>
-      <c r="F100" s="5">
-        <v>40</v>
-      </c>
-      <c r="G100" s="5">
-        <v>60</v>
-      </c>
-      <c r="H100" s="5">
-        <v>50</v>
-      </c>
-      <c r="I100" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J100" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K100" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L100" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M100" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N100" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O100" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A101" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E101" s="5">
-        <v>20</v>
-      </c>
-      <c r="F101" s="5">
-        <v>40</v>
-      </c>
-      <c r="G101" s="5">
-        <v>60</v>
-      </c>
-      <c r="H101" s="5">
-        <v>25</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J101" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K101" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L101" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M101" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N101" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O101" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A102" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E102" s="5">
-        <v>20</v>
-      </c>
-      <c r="F102" s="5">
-        <v>40</v>
-      </c>
-      <c r="G102" s="5">
-        <v>60</v>
-      </c>
-      <c r="H102" s="5">
-        <v>25</v>
-      </c>
-      <c r="I102" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J102" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K102" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L102" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M102" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N102" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O102" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A103" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E103" s="5">
-        <v>20</v>
-      </c>
-      <c r="F103" s="5">
-        <v>40</v>
-      </c>
-      <c r="G103" s="5">
-        <v>60</v>
-      </c>
-      <c r="H103" s="5">
-        <v>30</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J103" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K103" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L103" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M103" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N103" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O103" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A104" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E104" s="5">
-        <v>0</v>
-      </c>
-      <c r="F104" s="5">
-        <v>100</v>
-      </c>
-      <c r="G104" s="5">
-        <v>100</v>
-      </c>
-      <c r="H104" s="5">
-        <v>60</v>
-      </c>
-      <c r="I104" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J104" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K104" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L104" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M104" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N104" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O104" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A105" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E105" s="5">
-        <v>40</v>
-      </c>
-      <c r="F105" s="5">
+      <c r="E110" s="5">
         <v>120</v>
       </c>
-      <c r="G105" s="5">
-        <v>160</v>
-      </c>
-      <c r="H105" s="5">
-        <v>30</v>
-      </c>
-      <c r="I105" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J105" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K105" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L105" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M105" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N105" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O105" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A106" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E106" s="5">
-        <v>40</v>
-      </c>
-      <c r="F106" s="5">
-        <v>120</v>
-      </c>
-      <c r="G106" s="5">
-        <v>160</v>
-      </c>
-      <c r="H106" s="5">
-        <v>40</v>
-      </c>
-      <c r="I106" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J106" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K106" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L106" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M106" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N106" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O106" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A107" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E107" s="5">
-        <v>0</v>
-      </c>
-      <c r="F107" s="5">
-        <v>60</v>
-      </c>
-      <c r="G107" s="5">
-        <v>60</v>
-      </c>
-      <c r="H107" s="5">
-        <v>30</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J107" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K107" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L107" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M107" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N107" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O107" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A108" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E108" s="5">
-        <v>0</v>
-      </c>
-      <c r="F108" s="5">
-        <v>60</v>
-      </c>
-      <c r="G108" s="5">
-        <v>60</v>
-      </c>
-      <c r="H108" s="5">
-        <v>20</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J108" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K108" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L108" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M108" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N108" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O108" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A109" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E109" s="5">
-        <v>30</v>
-      </c>
-      <c r="F109" s="5">
-        <v>60</v>
-      </c>
-      <c r="G109" s="5">
-        <v>90</v>
-      </c>
-      <c r="H109" s="5">
-        <v>50</v>
-      </c>
-      <c r="I109" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J109" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K109" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L109" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M109" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N109" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O109" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A110" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E110" s="5">
-        <v>50</v>
-      </c>
       <c r="F110" s="5">
-        <v>120</v>
-      </c>
-      <c r="G110" s="5">
-        <v>170</v>
+        <v>30</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="H110" s="5">
-        <v>30</v>
-      </c>
-      <c r="I110" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J110" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K110" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L110" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M110" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N110" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O110" s="5">
         <v>2021</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N110">
-    <sortCondition ref="A2:A110"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="L2:N110" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -10518,7 +8191,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
@@ -10526,17 +8199,17 @@
     </row>
     <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -10546,7 +8219,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
@@ -10554,12 +8227,12 @@
     </row>
     <row r="10" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -10567,12 +8240,12 @@
     </row>
     <row r="13" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
@@ -10580,22 +8253,22 @@
     </row>
     <row r="16" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -10603,12 +8276,12 @@
     </row>
     <row r="21" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/data/course/resultat_kurs_2021.xlsx
+++ b/data/course/resultat_kurs_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6429A0F5-389A-574C-A743-EDBB33827FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C549BEDD-417B-410A-9CC2-E26E260BD1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10840" yWindow="500" windowWidth="17960" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="6525" windowWidth="28890" windowHeight="5955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lista beviljade ansökningar" sheetId="1" r:id="rId1"/>
+    <sheet name="Lista ansökningar" sheetId="1" r:id="rId1"/>
     <sheet name="Lista flera kommuner" sheetId="2" r:id="rId2"/>
     <sheet name="Definitioner och förklarningar" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -1523,21 +1523,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="28.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="5" customWidth="1"/>
+    <col min="4" max="5" width="28.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="5"/>
+    <col min="8" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>355</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>290</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>292</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>290</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>290</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>290</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>290</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>297</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>290</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>299</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>299</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>292</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>292</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>300</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>301</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>302</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>302</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>303</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>300</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>301</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>305</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>306</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>307</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>308</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>310</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>311</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>311</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>311</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>305</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>306</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>306</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>311</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>311</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>301</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>311</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>311</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>313</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>314</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>314</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>290</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>315</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>315</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>316</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>317</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>318</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>319</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>318</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>290</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>320</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>320</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>300</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>314</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>321</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>322</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>323</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>317</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>325</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>317</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>326</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>327</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>328</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>300</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>329</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>329</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>330</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>331</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>332</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>300</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>333</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>334</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>305</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>335</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>327</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>336</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>335</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>337</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>338</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>335</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>323</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>339</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>340</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>341</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>335</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>342</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>335</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>335</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>344</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>332</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>344</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>301</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>318</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>327</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>327</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>345</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>345</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>300</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>346</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>300</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>347</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>300</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>348</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>348</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>348</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>346</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>346</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>346</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>349</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>349</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>350</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>350</v>
       </c>
@@ -4412,20 +4412,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="10" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>35</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>49</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>52</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>54</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>54</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>54</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>56</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>56</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>58</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>60</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>60</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>62</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>67</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>70</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>72</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>76</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>76</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>76</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>76</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>82</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>85</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>85</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>85</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>87</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>90</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>93</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>95</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>97</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>99</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>99</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>102</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>104</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>106</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>108</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>110</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>110</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>112</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>114</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>116</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>119</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>119</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>121</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>121</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>123</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>123</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>126</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>130</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>132</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>132</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>132</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>135</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>138</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>140</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>142</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>144</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>144</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>144</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>144</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>153</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>155</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>157</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>160</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>160</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>162</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>164</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>164</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>166</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>166</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>168</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>170</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>175</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>177</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>179</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>182</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>184</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>186</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>188</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>190</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>192</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>195</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>199</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>201</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>203</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>207</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>207</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>207</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>207</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>207</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>210</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>212</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>214</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>216</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>218</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>222</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>222</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>224</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>226</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>228</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>230</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>232</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>234</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>236</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>238</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>240</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>242</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>245</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>246</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>248</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>250</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
         <v>252</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>254</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>256</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>258</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>260</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>262</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>264</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>264</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>266</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>268</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>270</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>272</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>274</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>276</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>278</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>280</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>282</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>284</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>286</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>288</v>
       </c>
@@ -8184,102 +8184,102 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="10" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
     </row>
-    <row r="10" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>366</v>
       </c>
